--- a/src/form_templates/template_59.xlsx
+++ b/src/form_templates/template_59.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance De Castro\Documents\GitHub\sIMS\excel test\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance De Castro\Documents\GitHub\sIMS\src\form_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{647118CB-EED7-4256-A467-2875AB1190EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E37B05-3690-41BB-8DD2-1F59C1488615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICS" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">ICS!$A$1:$H$51</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -39,12 +28,6 @@
     <t>Appendix 59</t>
   </si>
   <si>
-    <t>Fund Cluster : ________________________________</t>
-  </si>
-  <si>
-    <t>ICS No : ______________</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -58,9 +41,6 @@
   </si>
   <si>
     <t>Inventory Item No.</t>
-  </si>
-  <si>
-    <t>Estimated Useful Life</t>
   </si>
   <si>
     <t>Unit Cost</t>
@@ -101,12 +81,24 @@
   <si>
     <t>INVENTORY CUSTODIAN SLIP</t>
   </si>
+  <si>
+    <t xml:space="preserve">Fund Cluster : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICS No : </t>
+  </si>
+  <si>
+    <t>Estimated Useful Life (Days)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +177,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -423,79 +427,99 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -507,10 +531,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -540,33 +564,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -574,18 +616,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -867,34 +897,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:E46"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.28515625" style="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
@@ -905,11 +934,11 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -918,8 +947,8 @@
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37"/>
@@ -930,549 +959,553 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="5"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>3</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>5</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
-      <c r="C10" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>10</v>
+      <c r="C10" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>7</v>
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="46"/>
       <c r="G10" s="50"/>
       <c r="H10" s="50"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="47"/>
       <c r="F11" s="48"/>
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="60"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="65"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="60"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="11" t="s">
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="65"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="16"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="57"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="16"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="16"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="57"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="16"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="16"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="62"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="16"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="68"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
+      <c r="A52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
+      <c r="A53" s="14"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="64"/>
-      <c r="B109" s="64"/>
-      <c r="C109" s="64"/>
-      <c r="D109" s="64"/>
-      <c r="E109" s="64"/>
-      <c r="F109" s="64"/>
-      <c r="G109" s="64"/>
-      <c r="H109" s="64"/>
+      <c r="A109" s="63"/>
+      <c r="B109" s="63"/>
+      <c r="C109" s="63"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E39:F39"/>
     <mergeCell ref="A109:H109"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="F48:H48"/>
@@ -1480,9 +1513,6 @@
     <mergeCell ref="F49:H49"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="F50:H50"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="A51:E51"/>
     <mergeCell ref="F51:H51"/>
@@ -1493,13 +1523,14 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="F46:H46"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H4"/>
@@ -1514,14 +1545,10 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E28:F28"/>
@@ -1529,6 +1556,8 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.25" right="1" top="1" bottom="0.5" header="0" footer="0.5"/>

--- a/src/form_templates/template_59.xlsx
+++ b/src/form_templates/template_59.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance De Castro\Documents\GitHub\sIMS\src\form_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E37B05-3690-41BB-8DD2-1F59C1488615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BDD423-B3D0-47C9-AFE3-7AAA0A61CFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,12 +183,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -489,134 +483,134 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,8 +897,8 @@
   </sheetPr>
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,45 +914,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
     </row>
@@ -1004,373 +998,373 @@
     </row>
     <row r="8" spans="1:10" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="49" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="45" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="54" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
+      <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="22"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
+      <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="22"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="22"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
+      <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="22"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
+      <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="22"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
+      <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="22"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
+      <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="22"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="22"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
+      <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="22"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="22"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="22"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="35"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="22"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="22"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="22"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
+      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="22"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
+      <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="22"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="22"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="35"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
+      <c r="H42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26"/>
       <c r="B43" s="23"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="59"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
+      <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
@@ -1397,81 +1391,81 @@
       <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="62"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="32"/>
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="64" t="s">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="65"/>
-      <c r="H47" s="66"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="35"/>
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="62"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="32"/>
       <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="64" t="s">
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="65"/>
-      <c r="H49" s="66"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="35"/>
       <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="62"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="32"/>
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="67" t="s">
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="68"/>
-      <c r="H51" s="69"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="38"/>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -1491,17 +1485,57 @@
       <c r="H57" s="15"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="63"/>
-      <c r="B109" s="63"/>
-      <c r="C109" s="63"/>
-      <c r="D109" s="63"/>
-      <c r="E109" s="63"/>
-      <c r="F109" s="63"/>
-      <c r="G109" s="63"/>
-      <c r="H109" s="63"/>
+      <c r="A109" s="29"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="F46:H46"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
@@ -1518,46 +1552,6 @@
     <mergeCell ref="F51:H51"/>
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="F47:H47"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.25" right="1" top="1" bottom="0.5" header="0" footer="0.5"/>
